--- a/Roguelike/Assets/Resources/csv/Dungeon/Dungeon.xlsx
+++ b/Roguelike/Assets/Resources/csv/Dungeon/Dungeon.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\Roguelike_Unity\Roguelike\Assets\Resources\csv\Dungeon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{773C3D14-1202-45CA-9E50-DCC7D63B5D8E}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{6D9BFF6D-082F-4137-8A0D-03AA18682B0E}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16248" windowHeight="7692" xr2:uid="{CF737254-85A8-45E4-B7A0-9CE5322A5B95}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
   <si>
     <t>名前</t>
     <rPh sb="0" eb="2">
@@ -133,6 +133,16 @@
   </si>
   <si>
     <t>appear_enemy</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※数値はテスト中</t>
+    <rPh sb="1" eb="3">
+      <t>スウチ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>チュウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -140,7 +150,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -153,6 +163,15 @@
       <sz val="6"/>
       <name val="游ゴシック"/>
       <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -179,8 +198,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -497,10 +519,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2FB7C06-8256-4728-B460-A8481F9094A7}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -511,7 +533,7 @@
     <col min="7" max="7" width="14.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" ht="22.2" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -533,8 +555,11 @@
       <c r="G1" t="s">
         <v>12</v>
       </c>
+      <c r="I1" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -557,7 +582,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -580,7 +605,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>1</v>
       </c>
@@ -603,7 +628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>2</v>
       </c>
@@ -611,7 +636,7 @@
         <v>16</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5">
         <v>8</v>

--- a/Roguelike/Assets/Resources/csv/Dungeon/Dungeon.xlsx
+++ b/Roguelike/Assets/Resources/csv/Dungeon/Dungeon.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\Roguelike_Unity\Roguelike\Assets\Resources\csv\Dungeon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{6D9BFF6D-082F-4137-8A0D-03AA18682B0E}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{F29AB75B-5E53-4920-9D51-F871D502FB8C}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16248" windowHeight="7692" xr2:uid="{CF737254-85A8-45E4-B7A0-9CE5322A5B95}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
   <si>
     <t>名前</t>
     <rPh sb="0" eb="2">
@@ -42,13 +42,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>草原</t>
-    <rPh sb="0" eb="2">
-      <t>ソウゲン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>最大階層</t>
     <rPh sb="0" eb="2">
       <t>サイダイ</t>
@@ -121,13 +114,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>洞窟</t>
-    <rPh sb="0" eb="2">
-      <t>ドウクツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>boss_floor</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -143,6 +129,42 @@
     <rPh sb="7" eb="8">
       <t>チュウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>地形タイプ</t>
+    <rPh sb="0" eb="2">
+      <t>チケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>terrain_type</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>始まりの草原</t>
+    <rPh sb="0" eb="1">
+      <t>ハジ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ソウゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>うすぐら洞窟</t>
+    <rPh sb="4" eb="6">
+      <t>ドウクツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テストダンジョン</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -519,10 +541,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2FB7C06-8256-4728-B460-A8481F9094A7}">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -531,86 +553,96 @@
     <col min="5" max="5" width="16.69921875" customWidth="1"/>
     <col min="6" max="6" width="10.09765625" customWidth="1"/>
     <col min="7" max="7" width="14.09765625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="22.2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:10" ht="22.2" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" t="s">
-        <v>9</v>
-      </c>
       <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
         <v>12</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>13</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>16</v>
+      </c>
+      <c r="H2" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G3" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="H3" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -627,13 +659,16 @@
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C5">
         <v>2</v>
@@ -649,6 +684,32 @@
       </c>
       <c r="G5">
         <v>2</v>
+      </c>
+      <c r="H5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6">
+        <v>50</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
